--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2284.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2284.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.134226176280013</v>
+        <v>1.192046999931335</v>
       </c>
       <c r="B1">
-        <v>3.113401658093149</v>
+        <v>2.457992792129517</v>
       </c>
       <c r="C1">
-        <v>4.055075063942782</v>
+        <v>3.952888965606689</v>
       </c>
       <c r="D1">
-        <v>3.471328806732712</v>
+        <v>2.143872737884521</v>
       </c>
       <c r="E1">
-        <v>1.218513458654974</v>
+        <v>1.189554333686829</v>
       </c>
     </row>
   </sheetData>
